--- a/Data/Input/IACET DATA.xlsx
+++ b/Data/Input/IACET DATA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be984f7ed3aa7fa3/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\Live Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A95CC86-4E6F-4686-9625-6A54BA1020E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
@@ -10899,16 +10898,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
